--- a/va_facility_data_2025-02-20/Montevideo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Montevideo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Montevideo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Montevideo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R52ea7815327f475ab7d292fafd5076fc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R90840496e17e47419da7e43fa05b1ffe"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R760f8ce9a3ad4a7cb173162c6290b5a4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbee01fe6606a43a59ff14f47fb94238c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5b8a1f107c184cda9d360531330e6be3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3e06b695539b48b6b705b577cb29384b"/>
   </x:sheets>
 </x:workbook>
 </file>
